--- a/2024 Combined - Count Assessments (2).xlsx
+++ b/2024 Combined - Count Assessments (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C28BE-16E8-4CDB-9953-F01F7E190886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F9B3E-6230-482D-A749-DF84423E19ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="0" windowWidth="21336" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined - Count" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Baseline" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Baseline!$A$1:$W$266</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Combined - Count'!$A$1:$AF$228</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Endline!$A$1:$AB$1</definedName>
   </definedNames>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7903" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8032" uniqueCount="846">
   <si>
     <t>Mcode</t>
   </si>
@@ -2513,12 +2514,6 @@
     <t>Mfengu Owenceba</t>
   </si>
   <si>
-    <t>Siviwe</t>
-  </si>
-  <si>
-    <t>Chipewe Siviwe</t>
-  </si>
-  <si>
     <t>Nov - Oral Counting (10)</t>
   </si>
   <si>
@@ -2577,6 +2572,12 @@
   </si>
   <si>
     <t>Jan - Total (71)</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Chipewe Amanda</t>
   </si>
 </sst>
 </file>
@@ -3194,25 +3195,25 @@
   <dimension ref="A1:AF228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V117" sqref="V117"/>
+      <selection activeCell="L215" sqref="L215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="31" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="14.6640625" customWidth="1"/>
-    <col min="32" max="32" width="12.77734375" customWidth="1"/>
+    <col min="12" max="22" width="14.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3250,67 +3251,67 @@
         <v>11</v>
       </c>
       <c r="M1" s="37" t="s">
+        <v>834</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>836</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>837</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>838</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>839</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>840</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>841</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>842</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="V1" s="38" t="s">
         <v>843</v>
       </c>
-      <c r="U1" s="37" t="s">
-        <v>844</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>845</v>
-      </c>
       <c r="W1" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="Y1" s="37" t="s">
         <v>826</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>827</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="AA1" s="37" t="s">
         <v>828</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AB1" s="37" t="s">
         <v>829</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AC1" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AD1" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AE1" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AF1" s="38" t="s">
         <v>833</v>
       </c>
-      <c r="AE1" s="37" t="s">
-        <v>834</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3344,7 +3345,9 @@
       <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M2" s="5">
         <v>2</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
@@ -3442,7 +3445,9 @@
       <c r="K3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M3" s="5">
         <v>2</v>
       </c>
@@ -3506,7 +3511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -3540,7 +3545,9 @@
       <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M4" s="5">
         <v>2</v>
       </c>
@@ -3604,7 +3611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
@@ -3638,7 +3645,9 @@
       <c r="K5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M5" s="5">
         <v>2</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
@@ -3736,7 +3745,9 @@
       <c r="K6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M6" s="5">
         <v>2</v>
       </c>
@@ -3800,7 +3811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -3834,7 +3845,9 @@
       <c r="K7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M7" s="5">
         <v>2</v>
       </c>
@@ -3898,7 +3911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <v>16293</v>
       </c>
@@ -3998,7 +4011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>14801</v>
       </c>
@@ -4098,7 +4111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
         <v>8486</v>
       </c>
@@ -4177,7 +4190,7 @@
       <c r="AE10" s="15"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
         <v>4523</v>
       </c>
@@ -4273,11 +4286,11 @@
         <v>2</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" ref="AF11:AF74" si="2">SUM(W11:AE11)</f>
+        <f t="shared" ref="AF11:AF73" si="2">SUM(W11:AE11)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <v>16793</v>
       </c>
@@ -4356,7 +4369,7 @@
       <c r="AE12" s="15"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>8495</v>
       </c>
@@ -4456,7 +4469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <v>14804</v>
       </c>
@@ -4556,7 +4569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>17520</v>
       </c>
@@ -4656,7 +4669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
         <v>14806</v>
       </c>
@@ -4756,7 +4769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>16318</v>
       </c>
@@ -4856,7 +4869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>16319</v>
       </c>
@@ -4956,7 +4969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="33">
         <v>14802</v>
       </c>
@@ -5056,7 +5069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <v>8579</v>
       </c>
@@ -5156,7 +5169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
         <v>8499</v>
       </c>
@@ -5256,7 +5269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
         <v>8580</v>
       </c>
@@ -5335,7 +5348,7 @@
       <c r="AE22" s="15"/>
       <c r="AF22" s="9"/>
     </row>
-    <row r="23" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>17504</v>
       </c>
@@ -5414,7 +5427,7 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="9"/>
     </row>
-    <row r="24" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <v>17502</v>
       </c>
@@ -5493,7 +5506,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="9"/>
     </row>
-    <row r="25" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>17496</v>
       </c>
@@ -5593,7 +5606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
         <v>17501</v>
       </c>
@@ -5693,7 +5706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
         <v>17503</v>
       </c>
@@ -5793,7 +5806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>17497</v>
       </c>
@@ -5893,7 +5906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>17494</v>
       </c>
@@ -5993,7 +6006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="32">
         <v>17499</v>
       </c>
@@ -6072,7 +6085,7 @@
       <c r="AE30" s="15"/>
       <c r="AF30" s="9"/>
     </row>
-    <row r="31" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
         <v>17500</v>
       </c>
@@ -6172,7 +6185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="32">
         <v>17495</v>
       </c>
@@ -6272,7 +6285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>17505</v>
       </c>
@@ -6372,7 +6385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
         <v>17498</v>
       </c>
@@ -6472,7 +6485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
         <v>16289</v>
       </c>
@@ -6572,7 +6585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="32">
         <v>9725</v>
       </c>
@@ -6672,7 +6685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
         <v>8645</v>
       </c>
@@ -6772,7 +6785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="32">
         <v>16294</v>
       </c>
@@ -6872,7 +6885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="33">
         <v>8648</v>
       </c>
@@ -6972,7 +6985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="32">
         <v>16295</v>
       </c>
@@ -7072,7 +7085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
         <v>16295</v>
       </c>
@@ -7172,7 +7185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>16297</v>
       </c>
@@ -7272,7 +7285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="32">
         <v>17460</v>
       </c>
@@ -7372,7 +7385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="33">
         <v>16302</v>
       </c>
@@ -7472,7 +7485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="32">
         <v>8702</v>
       </c>
@@ -7572,7 +7585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>16304</v>
       </c>
@@ -7672,7 +7685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="32">
         <v>8432</v>
       </c>
@@ -7772,7 +7785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="33">
         <v>16305</v>
       </c>
@@ -7851,7 +7864,7 @@
       <c r="AE48" s="20"/>
       <c r="AF48" s="9"/>
     </row>
-    <row r="49" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="32">
         <v>16306</v>
       </c>
@@ -7951,7 +7964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
         <v>16307</v>
       </c>
@@ -8051,7 +8064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="32">
         <v>16308</v>
       </c>
@@ -8151,7 +8164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="33">
         <v>16303</v>
       </c>
@@ -8230,7 +8243,7 @@
       <c r="AE52" s="20"/>
       <c r="AF52" s="9"/>
     </row>
-    <row r="53" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="32">
         <v>17461</v>
       </c>
@@ -8330,7 +8343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="33">
         <v>16310</v>
       </c>
@@ -8430,7 +8443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="32">
         <v>16315</v>
       </c>
@@ -8530,7 +8543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="33">
         <v>16316</v>
       </c>
@@ -8609,7 +8622,7 @@
       <c r="AE56" s="20"/>
       <c r="AF56" s="9"/>
     </row>
-    <row r="57" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="32">
         <v>8766</v>
       </c>
@@ -8709,7 +8722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="33">
         <v>16771</v>
       </c>
@@ -8809,7 +8822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="32">
         <v>8434</v>
       </c>
@@ -8909,7 +8922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="33">
         <v>16320</v>
       </c>
@@ -9009,7 +9022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="32">
         <v>6441</v>
       </c>
@@ -9109,7 +9122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
         <v>16321</v>
       </c>
@@ -9209,7 +9222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="32">
         <v>8541</v>
       </c>
@@ -9309,7 +9322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="33">
         <v>8542</v>
       </c>
@@ -9409,7 +9422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="32">
         <v>8767</v>
       </c>
@@ -9509,7 +9522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="33">
         <v>6473</v>
       </c>
@@ -9609,7 +9622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="32">
         <v>8780</v>
       </c>
@@ -9709,7 +9722,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="33">
         <v>16322</v>
       </c>
@@ -9809,7 +9822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="32">
         <v>8435</v>
       </c>
@@ -9909,7 +9922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="33">
         <v>16311</v>
       </c>
@@ -10009,7 +10022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="32">
         <v>17462</v>
       </c>
@@ -10109,7 +10122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="33">
         <v>16323</v>
       </c>
@@ -10209,7 +10222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="32">
         <v>16324</v>
       </c>
@@ -10309,7 +10322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="33">
         <v>16325</v>
       </c>
@@ -10388,7 +10401,7 @@
       <c r="AE74" s="20"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="32">
         <v>8389</v>
       </c>
@@ -10488,7 +10501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="33">
         <v>16328</v>
       </c>
@@ -10588,7 +10601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="32">
         <v>8452</v>
       </c>
@@ -10667,7 +10680,7 @@
       <c r="AE77" s="15"/>
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="33">
         <v>16331</v>
       </c>
@@ -10767,7 +10780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="32">
         <v>16332</v>
       </c>
@@ -10867,7 +10880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="33">
         <v>16333</v>
       </c>
@@ -10967,7 +10980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="32">
         <v>16335</v>
       </c>
@@ -11067,7 +11080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="33">
         <v>16336</v>
       </c>
@@ -11146,7 +11159,7 @@
       <c r="AE82" s="20"/>
       <c r="AF82" s="9"/>
     </row>
-    <row r="83" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="32">
         <v>16337</v>
       </c>
@@ -11246,7 +11259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="33">
         <v>16338</v>
       </c>
@@ -11346,7 +11359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="32">
         <v>9716</v>
       </c>
@@ -11446,7 +11459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="33">
         <v>16339</v>
       </c>
@@ -11525,7 +11538,7 @@
       <c r="AE86" s="20"/>
       <c r="AF86" s="9"/>
     </row>
-    <row r="87" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="32">
         <v>16794</v>
       </c>
@@ -11625,7 +11638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="33">
         <v>16340</v>
       </c>
@@ -11725,7 +11738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="32">
         <v>9717</v>
       </c>
@@ -11825,7 +11838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="33">
         <v>16341</v>
       </c>
@@ -11925,7 +11938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="32">
         <v>16342</v>
       </c>
@@ -12004,7 +12017,7 @@
       <c r="AE91" s="15"/>
       <c r="AF91" s="9"/>
     </row>
-    <row r="92" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="33">
         <v>16343</v>
       </c>
@@ -12104,7 +12117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="32">
         <v>17514</v>
       </c>
@@ -12183,7 +12196,7 @@
       <c r="AE93" s="15"/>
       <c r="AF93" s="9"/>
     </row>
-    <row r="94" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="33">
         <v>16459</v>
       </c>
@@ -12283,7 +12296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="32">
         <v>6507</v>
       </c>
@@ -12383,7 +12396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="33">
         <v>16388</v>
       </c>
@@ -12483,7 +12496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="32">
         <v>17519</v>
       </c>
@@ -12517,7 +12530,9 @@
       <c r="K97" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="L97" s="10"/>
+      <c r="L97" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M97" s="5">
         <v>1</v>
       </c>
@@ -12560,7 +12575,7 @@
       <c r="AE97" s="15"/>
       <c r="AF97" s="9"/>
     </row>
-    <row r="98" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="33">
         <v>17512</v>
       </c>
@@ -12660,7 +12675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="32">
         <v>16396</v>
       </c>
@@ -12760,7 +12775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="33">
         <v>17518</v>
       </c>
@@ -12860,7 +12875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="32">
         <v>16403</v>
       </c>
@@ -12960,7 +12975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="33">
         <v>16404</v>
       </c>
@@ -13060,7 +13075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="32">
         <v>16406</v>
       </c>
@@ -13160,7 +13175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="33">
         <v>16407</v>
       </c>
@@ -13260,7 +13275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="32">
         <v>17515</v>
       </c>
@@ -13339,7 +13354,7 @@
       <c r="AE105" s="15"/>
       <c r="AF105" s="9"/>
     </row>
-    <row r="106" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="33">
         <v>16409</v>
       </c>
@@ -13418,7 +13433,7 @@
       <c r="AE106" s="3"/>
       <c r="AF106" s="9"/>
     </row>
-    <row r="107" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="32">
         <v>16411</v>
       </c>
@@ -13497,7 +13512,7 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="9"/>
     </row>
-    <row r="108" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="33">
         <v>16412</v>
       </c>
@@ -13597,7 +13612,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="32">
         <v>8425</v>
       </c>
@@ -13697,7 +13712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="33">
         <v>8748</v>
       </c>
@@ -13797,7 +13812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="32">
         <v>16417</v>
       </c>
@@ -13897,7 +13912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="33">
         <v>16418</v>
       </c>
@@ -13997,7 +14012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="32">
         <v>16392</v>
       </c>
@@ -14097,7 +14112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="33">
         <v>16420</v>
       </c>
@@ -14197,7 +14212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="32">
         <v>16422</v>
       </c>
@@ -14276,7 +14291,7 @@
       <c r="AE115" s="15"/>
       <c r="AF115" s="9"/>
     </row>
-    <row r="116" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="33">
         <v>17517</v>
       </c>
@@ -14376,7 +14391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="32">
         <v>16425</v>
       </c>
@@ -14476,7 +14491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="33">
         <v>16408</v>
       </c>
@@ -14576,7 +14591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="32">
         <v>17516</v>
       </c>
@@ -14676,7 +14691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="33">
         <v>16435</v>
       </c>
@@ -14776,7 +14791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="32">
         <v>16441</v>
       </c>
@@ -14876,7 +14891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="33">
         <v>16442</v>
       </c>
@@ -14955,7 +14970,7 @@
       <c r="AE122" s="20"/>
       <c r="AF122" s="9"/>
     </row>
-    <row r="123" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="32">
         <v>16443</v>
       </c>
@@ -15055,7 +15070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="33">
         <v>8769</v>
       </c>
@@ -15155,7 +15170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="32">
         <v>16446</v>
       </c>
@@ -15255,7 +15270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="33">
         <v>8447</v>
       </c>
@@ -15355,7 +15370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="32">
         <v>16448</v>
       </c>
@@ -15455,7 +15470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="33">
         <v>16449</v>
       </c>
@@ -15555,7 +15570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="32">
         <v>8775</v>
       </c>
@@ -15655,7 +15670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="33">
         <v>16454</v>
       </c>
@@ -15755,7 +15770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="32">
         <v>8450</v>
       </c>
@@ -15855,7 +15870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="33">
         <v>16457</v>
       </c>
@@ -15955,7 +15970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="32">
         <v>8794</v>
       </c>
@@ -16055,7 +16070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="33">
         <v>17511</v>
       </c>
@@ -16134,7 +16149,7 @@
       <c r="AE134" s="20"/>
       <c r="AF134" s="9"/>
     </row>
-    <row r="135" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="32">
         <v>16462</v>
       </c>
@@ -16234,7 +16249,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="33">
         <v>16467</v>
       </c>
@@ -16313,7 +16328,7 @@
       <c r="AE136" s="20"/>
       <c r="AF136" s="9"/>
     </row>
-    <row r="137" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="32">
         <v>17513</v>
       </c>
@@ -16392,7 +16407,7 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="9"/>
     </row>
-    <row r="138" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="33">
         <v>16644</v>
       </c>
@@ -16492,7 +16507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="32">
         <v>16472</v>
       </c>
@@ -16592,7 +16607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="33">
         <v>6828</v>
       </c>
@@ -16692,7 +16707,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="32">
         <v>16642</v>
       </c>
@@ -16792,7 +16807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="33">
         <v>16474</v>
       </c>
@@ -16892,7 +16907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="32">
         <v>16475</v>
       </c>
@@ -16992,7 +17007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="33">
         <v>16476</v>
       </c>
@@ -17092,7 +17107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="32">
         <v>16477</v>
       </c>
@@ -17192,7 +17207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="33">
         <v>8527</v>
       </c>
@@ -17292,7 +17307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="32">
         <v>16478</v>
       </c>
@@ -17392,7 +17407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="33">
         <v>16479</v>
       </c>
@@ -17492,7 +17507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="32">
         <v>6827</v>
       </c>
@@ -17592,7 +17607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="33">
         <v>16480</v>
       </c>
@@ -17692,7 +17707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="32">
         <v>16481</v>
       </c>
@@ -17771,7 +17786,7 @@
       <c r="AE151" s="15"/>
       <c r="AF151" s="9"/>
     </row>
-    <row r="152" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="33">
         <v>16482</v>
       </c>
@@ -17850,7 +17865,7 @@
       <c r="AE152" s="3"/>
       <c r="AF152" s="9"/>
     </row>
-    <row r="153" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="32">
         <v>8777</v>
       </c>
@@ -17950,7 +17965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="33">
         <v>17510</v>
       </c>
@@ -18029,7 +18044,7 @@
       <c r="AE154" s="20"/>
       <c r="AF154" s="9"/>
     </row>
-    <row r="155" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="32">
         <v>8779</v>
       </c>
@@ -18129,7 +18144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="33">
         <v>16484</v>
       </c>
@@ -18229,7 +18244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="32">
         <v>16485</v>
       </c>
@@ -18329,7 +18344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="33">
         <v>16486</v>
       </c>
@@ -18429,7 +18444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="32">
         <v>16641</v>
       </c>
@@ -18529,7 +18544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="33">
         <v>16643</v>
       </c>
@@ -18629,7 +18644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="33">
         <v>8782</v>
       </c>
@@ -18729,7 +18744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="32">
         <v>16640</v>
       </c>
@@ -18808,7 +18823,7 @@
       <c r="AE162" s="15"/>
       <c r="AF162" s="9"/>
     </row>
-    <row r="163" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="33">
         <v>6821</v>
       </c>
@@ -18908,7 +18923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="32">
         <v>16488</v>
       </c>
@@ -19008,7 +19023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="33">
         <v>16491</v>
       </c>
@@ -19108,7 +19123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="32">
         <v>16489</v>
       </c>
@@ -19187,7 +19202,7 @@
       <c r="AE166" s="15"/>
       <c r="AF166" s="9"/>
     </row>
-    <row r="167" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="33">
         <v>16490</v>
       </c>
@@ -19287,7 +19302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="32">
         <v>16493</v>
       </c>
@@ -19387,7 +19402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="33">
         <v>17508</v>
       </c>
@@ -19487,7 +19502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="32">
         <v>16494</v>
       </c>
@@ -19587,7 +19602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="33">
         <v>16495</v>
       </c>
@@ -19666,7 +19681,7 @@
       <c r="AE171" s="20"/>
       <c r="AF171" s="9"/>
     </row>
-    <row r="172" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="32">
         <v>8469</v>
       </c>
@@ -19766,7 +19781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="33">
         <v>16496</v>
       </c>
@@ -19866,7 +19881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="32">
         <v>17506</v>
       </c>
@@ -19966,7 +19981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="33">
         <v>16497</v>
       </c>
@@ -20066,7 +20081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="32">
         <v>16499</v>
       </c>
@@ -20145,7 +20160,7 @@
       <c r="AE176" s="15"/>
       <c r="AF176" s="9"/>
     </row>
-    <row r="177" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="33">
         <v>17509</v>
       </c>
@@ -20245,7 +20260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="32">
         <v>17507</v>
       </c>
@@ -20345,7 +20360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="33">
         <v>16504</v>
       </c>
@@ -20445,7 +20460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="30" t="s">
         <v>12</v>
       </c>
@@ -20479,7 +20494,9 @@
       <c r="K180" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="L180" s="10"/>
+      <c r="L180" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M180" s="5">
         <v>0</v>
       </c>
@@ -20543,7 +20560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="29" t="s">
         <v>12</v>
       </c>
@@ -20577,7 +20594,9 @@
       <c r="K181" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L181" s="5"/>
+      <c r="L181" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M181" s="5">
         <v>2</v>
       </c>
@@ -20641,7 +20660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="30" t="s">
         <v>12</v>
       </c>
@@ -20675,7 +20694,9 @@
       <c r="K182" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="L182" s="10"/>
+      <c r="L182" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M182" s="5">
         <v>1</v>
       </c>
@@ -20739,7 +20760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="29" t="s">
         <v>12</v>
       </c>
@@ -20773,7 +20794,9 @@
       <c r="K183" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L183" s="5"/>
+      <c r="L183" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M183" s="5">
         <v>1</v>
       </c>
@@ -20837,7 +20860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
         <v>12</v>
       </c>
@@ -20871,7 +20894,9 @@
       <c r="K184" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="L184" s="10"/>
+      <c r="L184" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M184" s="5">
         <v>2</v>
       </c>
@@ -20935,7 +20960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="29" t="s">
         <v>12</v>
       </c>
@@ -20969,7 +20994,9 @@
       <c r="K185" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="L185" s="5"/>
+      <c r="L185" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M185" s="5">
         <v>2</v>
       </c>
@@ -21033,7 +21060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
         <v>12</v>
       </c>
@@ -21067,7 +21094,9 @@
       <c r="K186" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="L186" s="10"/>
+      <c r="L186" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M186" s="5">
         <v>1</v>
       </c>
@@ -21131,7 +21160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="29" t="s">
         <v>12</v>
       </c>
@@ -21165,7 +21194,9 @@
       <c r="K187" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="L187" s="5"/>
+      <c r="L187" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M187" s="5">
         <v>1</v>
       </c>
@@ -21229,7 +21260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="30" t="s">
         <v>12</v>
       </c>
@@ -21263,7 +21294,9 @@
       <c r="K188" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="L188" s="10"/>
+      <c r="L188" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M188" s="5">
         <v>2</v>
       </c>
@@ -21327,7 +21360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="29" t="s">
         <v>12</v>
       </c>
@@ -21406,7 +21439,7 @@
       <c r="AE189" s="20"/>
       <c r="AF189" s="9"/>
     </row>
-    <row r="190" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="30" t="s">
         <v>12</v>
       </c>
@@ -21440,7 +21473,9 @@
       <c r="K190" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="L190" s="10"/>
+      <c r="L190" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M190" s="5">
         <v>2</v>
       </c>
@@ -21504,7 +21539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="29" t="s">
         <v>12</v>
       </c>
@@ -21538,7 +21573,9 @@
       <c r="K191" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="L191" s="5"/>
+      <c r="L191" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M191" s="5">
         <v>1</v>
       </c>
@@ -21602,7 +21639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="30" t="s">
         <v>12</v>
       </c>
@@ -21636,7 +21673,9 @@
       <c r="K192" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="L192" s="10"/>
+      <c r="L192" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M192" s="5">
         <v>2</v>
       </c>
@@ -21700,7 +21739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="29" t="s">
         <v>12</v>
       </c>
@@ -21734,7 +21773,9 @@
       <c r="K193" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="L193" s="5"/>
+      <c r="L193" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M193" s="5">
         <v>1</v>
       </c>
@@ -21798,7 +21839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="30" t="s">
         <v>12</v>
       </c>
@@ -21832,7 +21873,9 @@
       <c r="K194" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="L194" s="10"/>
+      <c r="L194" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M194" s="5">
         <v>3</v>
       </c>
@@ -21896,7 +21939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="29" t="s">
         <v>12</v>
       </c>
@@ -21930,7 +21973,9 @@
       <c r="K195" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="L195" s="5"/>
+      <c r="L195" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M195" s="5">
         <v>2</v>
       </c>
@@ -21994,7 +22039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="196" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="30" t="s">
         <v>12</v>
       </c>
@@ -22028,7 +22073,9 @@
       <c r="K196" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="L196" s="10"/>
+      <c r="L196" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M196" s="5">
         <v>0</v>
       </c>
@@ -22092,7 +22139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="29" t="s">
         <v>12</v>
       </c>
@@ -22126,7 +22173,9 @@
       <c r="K197" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="L197" s="5"/>
+      <c r="L197" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M197" s="5">
         <v>2</v>
       </c>
@@ -22190,7 +22239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="30" t="s">
         <v>12</v>
       </c>
@@ -22224,7 +22273,9 @@
       <c r="K198" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="L198" s="10"/>
+      <c r="L198" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M198" s="5">
         <v>4</v>
       </c>
@@ -22288,7 +22339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="29" t="s">
         <v>12</v>
       </c>
@@ -22322,7 +22373,9 @@
       <c r="K199" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="L199" s="5"/>
+      <c r="L199" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M199" s="5">
         <v>2</v>
       </c>
@@ -22386,7 +22439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="30" t="s">
         <v>12</v>
       </c>
@@ -22420,7 +22473,9 @@
       <c r="K200" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="L200" s="10"/>
+      <c r="L200" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M200" s="5">
         <v>1</v>
       </c>
@@ -22484,7 +22539,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="29" t="s">
         <v>12</v>
       </c>
@@ -22518,7 +22573,9 @@
       <c r="K201" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="L201" s="5"/>
+      <c r="L201" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M201" s="5">
         <v>0</v>
       </c>
@@ -22582,7 +22639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="30" t="s">
         <v>12</v>
       </c>
@@ -22616,7 +22673,9 @@
       <c r="K202" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="L202" s="10"/>
+      <c r="L202" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M202" s="5">
         <v>1</v>
       </c>
@@ -22680,7 +22739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="29" t="s">
         <v>12</v>
       </c>
@@ -22714,7 +22773,9 @@
       <c r="K203" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="L203" s="5"/>
+      <c r="L203" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M203" s="5">
         <v>2</v>
       </c>
@@ -22778,7 +22839,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="30" t="s">
         <v>12</v>
       </c>
@@ -22812,7 +22873,9 @@
       <c r="K204" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="L204" s="10"/>
+      <c r="L204" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M204" s="5">
         <v>1</v>
       </c>
@@ -22876,7 +22939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="29" t="s">
         <v>12</v>
       </c>
@@ -22910,7 +22973,9 @@
       <c r="K205" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="L205" s="5"/>
+      <c r="L205" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M205" s="5">
         <v>2</v>
       </c>
@@ -22974,7 +23039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="30" t="s">
         <v>12</v>
       </c>
@@ -23008,7 +23073,9 @@
       <c r="K206" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="L206" s="10"/>
+      <c r="L206" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M206" s="5">
         <v>2</v>
       </c>
@@ -23072,7 +23139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="29" t="s">
         <v>12</v>
       </c>
@@ -23106,7 +23173,9 @@
       <c r="K207" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="L207" s="5"/>
+      <c r="L207" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M207" s="5">
         <v>1</v>
       </c>
@@ -23170,7 +23239,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="30" t="s">
         <v>12</v>
       </c>
@@ -23204,7 +23273,9 @@
       <c r="K208" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="L208" s="10"/>
+      <c r="L208" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M208" s="5">
         <v>1</v>
       </c>
@@ -23268,7 +23339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="29" t="s">
         <v>12</v>
       </c>
@@ -23302,7 +23373,9 @@
       <c r="K209" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="L209" s="5"/>
+      <c r="L209" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M209" s="5">
         <v>1</v>
       </c>
@@ -23366,7 +23439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
         <v>12</v>
       </c>
@@ -23445,7 +23518,7 @@
       <c r="AE210" s="15"/>
       <c r="AF210" s="9"/>
     </row>
-    <row r="211" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="29" t="s">
         <v>12</v>
       </c>
@@ -23479,7 +23552,9 @@
       <c r="K211" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="L211" s="5"/>
+      <c r="L211" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M211" s="5">
         <v>3</v>
       </c>
@@ -23543,7 +23618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="30" t="s">
         <v>12</v>
       </c>
@@ -23577,7 +23652,9 @@
       <c r="K212" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="L212" s="10"/>
+      <c r="L212" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M212" s="5">
         <v>1</v>
       </c>
@@ -23641,7 +23718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="29" t="s">
         <v>12</v>
       </c>
@@ -23675,7 +23752,9 @@
       <c r="K213" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="L213" s="5"/>
+      <c r="L213" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M213" s="5">
         <v>1</v>
       </c>
@@ -23739,7 +23818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
         <v>12</v>
       </c>
@@ -23773,7 +23852,9 @@
       <c r="K214" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="L214" s="10"/>
+      <c r="L214" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M214" s="5">
         <v>2</v>
       </c>
@@ -23837,7 +23918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="29" t="s">
         <v>12</v>
       </c>
@@ -23871,7 +23952,9 @@
       <c r="K215" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="L215" s="5"/>
+      <c r="L215" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M215" s="5">
         <v>0</v>
       </c>
@@ -23935,7 +24018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="216" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
         <v>12</v>
       </c>
@@ -23969,7 +24052,9 @@
       <c r="K216" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="L216" s="10"/>
+      <c r="L216" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M216" s="5">
         <v>2</v>
       </c>
@@ -24033,7 +24118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="32">
         <v>17467</v>
       </c>
@@ -24133,7 +24218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="33">
         <v>17466</v>
       </c>
@@ -24233,7 +24318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="34">
         <v>17465</v>
       </c>
@@ -24333,7 +24418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="33">
         <v>17463</v>
       </c>
@@ -24412,7 +24497,7 @@
       <c r="AE220" s="20"/>
       <c r="AF220" s="9"/>
     </row>
-    <row r="221" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="32">
         <v>17472</v>
       </c>
@@ -24512,7 +24597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="222" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="33">
         <v>17470</v>
       </c>
@@ -24612,7 +24697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="223" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="32">
         <v>17474</v>
       </c>
@@ -24691,7 +24776,7 @@
       <c r="AE223" s="15"/>
       <c r="AF223" s="9"/>
     </row>
-    <row r="224" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="35">
         <v>17471</v>
       </c>
@@ -24791,7 +24876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="32">
         <v>17468</v>
       </c>
@@ -24891,7 +24976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="33">
         <v>17469</v>
       </c>
@@ -24991,7 +25076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="32">
         <v>17464</v>
       </c>
@@ -25091,7 +25176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="36">
         <v>17473</v>
       </c>
@@ -25225,27 +25310,27 @@
   </sheetPr>
   <dimension ref="A1:AA228"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:V1048576"/>
+      <selection pane="bottomLeft" activeCell="K227" sqref="K227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="31" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -25283,34 +25368,34 @@
         <v>11</v>
       </c>
       <c r="M1" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>826</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>827</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>828</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>829</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="V1" s="38" t="s">
         <v>833</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>834</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>835</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -25318,7 +25403,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -25352,7 +25437,9 @@
       <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M2" s="8">
         <v>2</v>
       </c>
@@ -25384,7 +25471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
@@ -25418,7 +25505,9 @@
       <c r="K3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M3" s="11">
         <v>2</v>
       </c>
@@ -25450,7 +25539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -25484,7 +25573,9 @@
       <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M4" s="11">
         <v>2</v>
       </c>
@@ -25516,7 +25607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
@@ -25550,7 +25641,9 @@
       <c r="K5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M5" s="8">
         <v>2</v>
       </c>
@@ -25582,7 +25675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
@@ -25616,7 +25709,9 @@
       <c r="K6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M6" s="11">
         <v>2</v>
       </c>
@@ -25648,7 +25743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -25682,7 +25777,9 @@
       <c r="K7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M7" s="8">
         <v>2</v>
       </c>
@@ -25714,7 +25811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <v>16293</v>
       </c>
@@ -25782,7 +25879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>14801</v>
       </c>
@@ -25850,7 +25947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
         <v>8486</v>
       </c>
@@ -25900,7 +25997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
         <v>4523</v>
       </c>
@@ -25968,7 +26065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <v>16793</v>
       </c>
@@ -26018,7 +26115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>8495</v>
       </c>
@@ -26086,7 +26183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <v>14804</v>
       </c>
@@ -26154,7 +26251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>17520</v>
       </c>
@@ -26222,7 +26319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
         <v>14806</v>
       </c>
@@ -26290,7 +26387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>16318</v>
       </c>
@@ -26358,7 +26455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>16319</v>
       </c>
@@ -26426,7 +26523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="33">
         <v>14802</v>
       </c>
@@ -26494,7 +26591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <v>8579</v>
       </c>
@@ -26562,7 +26659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
         <v>8499</v>
       </c>
@@ -26630,7 +26727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
         <v>8580</v>
       </c>
@@ -26680,7 +26777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>17504</v>
       </c>
@@ -26730,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <v>17502</v>
       </c>
@@ -26780,7 +26877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>17496</v>
       </c>
@@ -26848,7 +26945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
         <v>17501</v>
       </c>
@@ -26916,7 +27013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
         <v>17503</v>
       </c>
@@ -26984,7 +27081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>17497</v>
       </c>
@@ -27052,7 +27149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>17494</v>
       </c>
@@ -27120,7 +27217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="32">
         <v>17499</v>
       </c>
@@ -27170,7 +27267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
         <v>17500</v>
       </c>
@@ -27238,7 +27335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="32">
         <v>17495</v>
       </c>
@@ -27306,7 +27403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>17505</v>
       </c>
@@ -27374,7 +27471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
         <v>17498</v>
       </c>
@@ -27442,7 +27539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
         <v>16289</v>
       </c>
@@ -27510,7 +27607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="32">
         <v>9725</v>
       </c>
@@ -27578,7 +27675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
         <v>8645</v>
       </c>
@@ -27646,7 +27743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="32">
         <v>16294</v>
       </c>
@@ -27714,7 +27811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="33">
         <v>8648</v>
       </c>
@@ -27782,7 +27879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="32">
         <v>16295</v>
       </c>
@@ -27850,7 +27947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
         <v>16295</v>
       </c>
@@ -27918,7 +28015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>16297</v>
       </c>
@@ -27986,7 +28083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="32">
         <v>17460</v>
       </c>
@@ -28054,7 +28151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="33">
         <v>16302</v>
       </c>
@@ -28122,7 +28219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="32">
         <v>8702</v>
       </c>
@@ -28190,7 +28287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>16304</v>
       </c>
@@ -28258,7 +28355,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="32">
         <v>8432</v>
       </c>
@@ -28326,7 +28423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="33">
         <v>16305</v>
       </c>
@@ -28376,7 +28473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="32">
         <v>16306</v>
       </c>
@@ -28444,7 +28541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
         <v>16307</v>
       </c>
@@ -28512,7 +28609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="32">
         <v>16308</v>
       </c>
@@ -28580,7 +28677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="33">
         <v>16303</v>
       </c>
@@ -28630,7 +28727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="32">
         <v>17461</v>
       </c>
@@ -28698,7 +28795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="33">
         <v>16310</v>
       </c>
@@ -28766,7 +28863,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="32">
         <v>16315</v>
       </c>
@@ -28834,7 +28931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="33">
         <v>16316</v>
       </c>
@@ -28884,7 +28981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="32">
         <v>8766</v>
       </c>
@@ -28952,7 +29049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="33">
         <v>16771</v>
       </c>
@@ -29020,7 +29117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="32">
         <v>8434</v>
       </c>
@@ -29088,7 +29185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="33">
         <v>16320</v>
       </c>
@@ -29156,7 +29253,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="32">
         <v>6441</v>
       </c>
@@ -29224,7 +29321,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
         <v>16321</v>
       </c>
@@ -29292,7 +29389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="32">
         <v>8541</v>
       </c>
@@ -29360,7 +29457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="33">
         <v>8542</v>
       </c>
@@ -29428,7 +29525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="32">
         <v>8767</v>
       </c>
@@ -29496,7 +29593,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="33">
         <v>6473</v>
       </c>
@@ -29564,7 +29661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="32">
         <v>8780</v>
       </c>
@@ -29632,7 +29729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="33">
         <v>16322</v>
       </c>
@@ -29700,7 +29797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="32">
         <v>8435</v>
       </c>
@@ -29768,7 +29865,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="33">
         <v>16311</v>
       </c>
@@ -29836,7 +29933,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="32">
         <v>17462</v>
       </c>
@@ -29904,7 +30001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="33">
         <v>16323</v>
       </c>
@@ -29972,7 +30069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="32">
         <v>16324</v>
       </c>
@@ -30040,7 +30137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="33">
         <v>16325</v>
       </c>
@@ -30090,7 +30187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="32">
         <v>8389</v>
       </c>
@@ -30158,7 +30255,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="33">
         <v>16328</v>
       </c>
@@ -30226,7 +30323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="32">
         <v>8452</v>
       </c>
@@ -30276,7 +30373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="33">
         <v>16331</v>
       </c>
@@ -30344,7 +30441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="32">
         <v>16332</v>
       </c>
@@ -30412,7 +30509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="33">
         <v>16333</v>
       </c>
@@ -30480,7 +30577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="32">
         <v>16335</v>
       </c>
@@ -30548,7 +30645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="33">
         <v>16336</v>
       </c>
@@ -30598,7 +30695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="32">
         <v>16337</v>
       </c>
@@ -30666,7 +30763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="33">
         <v>16338</v>
       </c>
@@ -30734,7 +30831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="32">
         <v>9716</v>
       </c>
@@ -30802,7 +30899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="33">
         <v>16339</v>
       </c>
@@ -30852,7 +30949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="32">
         <v>16794</v>
       </c>
@@ -30920,7 +31017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="33">
         <v>16340</v>
       </c>
@@ -30988,7 +31085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="32">
         <v>9717</v>
       </c>
@@ -31056,7 +31153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="33">
         <v>16341</v>
       </c>
@@ -31124,7 +31221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="32">
         <v>16342</v>
       </c>
@@ -31174,7 +31271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="33">
         <v>16343</v>
       </c>
@@ -31242,7 +31339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="32">
         <v>17514</v>
       </c>
@@ -31292,7 +31389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="33">
         <v>16459</v>
       </c>
@@ -31360,7 +31457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="32">
         <v>6507</v>
       </c>
@@ -31428,7 +31525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="33">
         <v>16388</v>
       </c>
@@ -31496,7 +31593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="32">
         <v>17519</v>
       </c>
@@ -31530,7 +31627,9 @@
       <c r="K97" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="L97" s="10"/>
+      <c r="L97" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M97" s="14"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
@@ -31544,7 +31643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="33">
         <v>17512</v>
       </c>
@@ -31612,7 +31711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="32">
         <v>16396</v>
       </c>
@@ -31680,7 +31779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="33">
         <v>17518</v>
       </c>
@@ -31748,7 +31847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="32">
         <v>16403</v>
       </c>
@@ -31816,7 +31915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="33">
         <v>16404</v>
       </c>
@@ -31884,7 +31983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="32">
         <v>16406</v>
       </c>
@@ -31952,7 +32051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="33">
         <v>16407</v>
       </c>
@@ -32020,7 +32119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="32">
         <v>17515</v>
       </c>
@@ -32070,7 +32169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="33">
         <v>16409</v>
       </c>
@@ -32120,7 +32219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="32">
         <v>16411</v>
       </c>
@@ -32170,7 +32269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="33">
         <v>16412</v>
       </c>
@@ -32238,7 +32337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="32">
         <v>8425</v>
       </c>
@@ -32306,7 +32405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="33">
         <v>8748</v>
       </c>
@@ -32374,7 +32473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="32">
         <v>16417</v>
       </c>
@@ -32442,7 +32541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="33">
         <v>16418</v>
       </c>
@@ -32510,7 +32609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="32">
         <v>16392</v>
       </c>
@@ -32578,7 +32677,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="33">
         <v>16420</v>
       </c>
@@ -32646,7 +32745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="32">
         <v>16422</v>
       </c>
@@ -32696,7 +32795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="33">
         <v>17517</v>
       </c>
@@ -32764,7 +32863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="32">
         <v>16425</v>
       </c>
@@ -32832,7 +32931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="33">
         <v>16408</v>
       </c>
@@ -32900,7 +32999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="32">
         <v>17516</v>
       </c>
@@ -32968,7 +33067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="33">
         <v>16435</v>
       </c>
@@ -33036,7 +33135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="32">
         <v>16441</v>
       </c>
@@ -33104,7 +33203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="33">
         <v>16442</v>
       </c>
@@ -33154,7 +33253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="32">
         <v>16443</v>
       </c>
@@ -33222,7 +33321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="33">
         <v>8769</v>
       </c>
@@ -33290,7 +33389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="32">
         <v>16446</v>
       </c>
@@ -33358,7 +33457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="33">
         <v>8447</v>
       </c>
@@ -33426,7 +33525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="32">
         <v>16448</v>
       </c>
@@ -33494,7 +33593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="33">
         <v>16449</v>
       </c>
@@ -33562,7 +33661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="32">
         <v>8775</v>
       </c>
@@ -33630,7 +33729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="33">
         <v>16454</v>
       </c>
@@ -33698,7 +33797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="32">
         <v>8450</v>
       </c>
@@ -33766,7 +33865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="33">
         <v>16457</v>
       </c>
@@ -33834,7 +33933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="32">
         <v>8794</v>
       </c>
@@ -33902,7 +34001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="33">
         <v>17511</v>
       </c>
@@ -33952,7 +34051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="32">
         <v>16462</v>
       </c>
@@ -34020,7 +34119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="33">
         <v>16467</v>
       </c>
@@ -34070,7 +34169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="32">
         <v>17513</v>
       </c>
@@ -34120,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="33">
         <v>16644</v>
       </c>
@@ -34188,7 +34287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="32">
         <v>16472</v>
       </c>
@@ -34256,7 +34355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="33">
         <v>6828</v>
       </c>
@@ -34324,7 +34423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="32">
         <v>16642</v>
       </c>
@@ -34392,7 +34491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="33">
         <v>16474</v>
       </c>
@@ -34460,7 +34559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="32">
         <v>16475</v>
       </c>
@@ -34528,7 +34627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="33">
         <v>16476</v>
       </c>
@@ -34596,7 +34695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="32">
         <v>16477</v>
       </c>
@@ -34664,7 +34763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="33">
         <v>8527</v>
       </c>
@@ -34732,7 +34831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="32">
         <v>16478</v>
       </c>
@@ -34800,7 +34899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="33">
         <v>16479</v>
       </c>
@@ -34868,7 +34967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="32">
         <v>6827</v>
       </c>
@@ -34936,7 +35035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="33">
         <v>16480</v>
       </c>
@@ -35004,7 +35103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="32">
         <v>16481</v>
       </c>
@@ -35054,7 +35153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="33">
         <v>16482</v>
       </c>
@@ -35104,7 +35203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="32">
         <v>8777</v>
       </c>
@@ -35172,7 +35271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="33">
         <v>17510</v>
       </c>
@@ -35222,7 +35321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="32">
         <v>8779</v>
       </c>
@@ -35290,7 +35389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="33">
         <v>16484</v>
       </c>
@@ -35358,7 +35457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="32">
         <v>16485</v>
       </c>
@@ -35426,7 +35525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="33">
         <v>16486</v>
       </c>
@@ -35494,7 +35593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="32">
         <v>16641</v>
       </c>
@@ -35562,7 +35661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="33">
         <v>16643</v>
       </c>
@@ -35630,7 +35729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="33">
         <v>8782</v>
       </c>
@@ -35698,7 +35797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="32">
         <v>16640</v>
       </c>
@@ -35748,7 +35847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="33">
         <v>6821</v>
       </c>
@@ -35816,7 +35915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="32">
         <v>16488</v>
       </c>
@@ -35884,7 +35983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="33">
         <v>16491</v>
       </c>
@@ -35952,7 +36051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="32">
         <v>16489</v>
       </c>
@@ -36002,7 +36101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="33">
         <v>16490</v>
       </c>
@@ -36070,7 +36169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="32">
         <v>16493</v>
       </c>
@@ -36138,7 +36237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="33">
         <v>17508</v>
       </c>
@@ -36206,7 +36305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="32">
         <v>16494</v>
       </c>
@@ -36274,7 +36373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="33">
         <v>16495</v>
       </c>
@@ -36324,7 +36423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="32">
         <v>8469</v>
       </c>
@@ -36392,7 +36491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="33">
         <v>16496</v>
       </c>
@@ -36460,7 +36559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="32">
         <v>17506</v>
       </c>
@@ -36528,7 +36627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="33">
         <v>16497</v>
       </c>
@@ -36596,7 +36695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="32">
         <v>16499</v>
       </c>
@@ -36646,7 +36745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="33">
         <v>17509</v>
       </c>
@@ -36714,7 +36813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="32">
         <v>17507</v>
       </c>
@@ -36782,7 +36881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="33">
         <v>16504</v>
       </c>
@@ -36850,7 +36949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="30" t="s">
         <v>12</v>
       </c>
@@ -36884,7 +36983,9 @@
       <c r="K180" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="L180" s="10"/>
+      <c r="L180" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M180" s="11">
         <v>1</v>
       </c>
@@ -36916,7 +37017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="29" t="s">
         <v>12</v>
       </c>
@@ -36950,7 +37051,9 @@
       <c r="K181" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L181" s="5"/>
+      <c r="L181" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M181" s="8">
         <v>3</v>
       </c>
@@ -36982,7 +37085,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="30" t="s">
         <v>12</v>
       </c>
@@ -37016,7 +37119,9 @@
       <c r="K182" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="L182" s="10"/>
+      <c r="L182" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M182" s="11">
         <v>3</v>
       </c>
@@ -37048,7 +37153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="29" t="s">
         <v>12</v>
       </c>
@@ -37082,7 +37187,9 @@
       <c r="K183" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L183" s="5"/>
+      <c r="L183" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M183" s="8">
         <v>6</v>
       </c>
@@ -37114,7 +37221,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
         <v>12</v>
       </c>
@@ -37148,7 +37255,9 @@
       <c r="K184" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="L184" s="10"/>
+      <c r="L184" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M184" s="11">
         <v>4</v>
       </c>
@@ -37180,7 +37289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="29" t="s">
         <v>12</v>
       </c>
@@ -37214,7 +37323,9 @@
       <c r="K185" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="L185" s="5"/>
+      <c r="L185" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M185" s="8">
         <v>8</v>
       </c>
@@ -37246,7 +37357,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
         <v>12</v>
       </c>
@@ -37280,7 +37391,9 @@
       <c r="K186" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="L186" s="10"/>
+      <c r="L186" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M186" s="11">
         <v>4</v>
       </c>
@@ -37312,7 +37425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="29" t="s">
         <v>12</v>
       </c>
@@ -37346,7 +37459,9 @@
       <c r="K187" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="L187" s="5"/>
+      <c r="L187" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M187" s="8">
         <v>2</v>
       </c>
@@ -37378,7 +37493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="30" t="s">
         <v>12</v>
       </c>
@@ -37412,7 +37527,9 @@
       <c r="K188" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="L188" s="10"/>
+      <c r="L188" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M188" s="11">
         <v>5</v>
       </c>
@@ -37444,7 +37561,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="29" t="s">
         <v>12</v>
       </c>
@@ -37494,7 +37611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="30" t="s">
         <v>12</v>
       </c>
@@ -37528,7 +37645,9 @@
       <c r="K190" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="L190" s="10"/>
+      <c r="L190" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M190" s="13">
         <v>9</v>
       </c>
@@ -37560,7 +37679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="29" t="s">
         <v>12</v>
       </c>
@@ -37594,7 +37713,9 @@
       <c r="K191" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="L191" s="5"/>
+      <c r="L191" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M191" s="8">
         <v>6</v>
       </c>
@@ -37626,7 +37747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="30" t="s">
         <v>12</v>
       </c>
@@ -37660,7 +37781,9 @@
       <c r="K192" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="L192" s="10"/>
+      <c r="L192" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M192" s="11">
         <v>6</v>
       </c>
@@ -37692,7 +37815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="29" t="s">
         <v>12</v>
       </c>
@@ -37726,7 +37849,9 @@
       <c r="K193" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="L193" s="5"/>
+      <c r="L193" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M193" s="8">
         <v>3</v>
       </c>
@@ -37758,7 +37883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="30" t="s">
         <v>12</v>
       </c>
@@ -37792,7 +37917,9 @@
       <c r="K194" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="L194" s="10"/>
+      <c r="L194" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M194" s="11">
         <v>6</v>
       </c>
@@ -37824,7 +37951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="29" t="s">
         <v>12</v>
       </c>
@@ -37858,7 +37985,9 @@
       <c r="K195" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="L195" s="5"/>
+      <c r="L195" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M195" s="8">
         <v>4</v>
       </c>
@@ -37890,7 +38019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="30" t="s">
         <v>12</v>
       </c>
@@ -37924,7 +38053,9 @@
       <c r="K196" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="L196" s="10"/>
+      <c r="L196" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M196" s="11">
         <v>1</v>
       </c>
@@ -37956,7 +38087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="29" t="s">
         <v>12</v>
       </c>
@@ -37990,7 +38121,9 @@
       <c r="K197" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="L197" s="5"/>
+      <c r="L197" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M197" s="8">
         <v>3</v>
       </c>
@@ -38022,7 +38155,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="30" t="s">
         <v>12</v>
       </c>
@@ -38056,7 +38189,9 @@
       <c r="K198" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="L198" s="10"/>
+      <c r="L198" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M198" s="11">
         <v>5</v>
       </c>
@@ -38088,7 +38223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="29" t="s">
         <v>12</v>
       </c>
@@ -38122,7 +38257,9 @@
       <c r="K199" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="L199" s="5"/>
+      <c r="L199" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M199" s="8">
         <v>10</v>
       </c>
@@ -38154,7 +38291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="30" t="s">
         <v>12</v>
       </c>
@@ -38188,7 +38325,9 @@
       <c r="K200" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="L200" s="10"/>
+      <c r="L200" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M200" s="11">
         <v>6</v>
       </c>
@@ -38220,7 +38359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="29" t="s">
         <v>12</v>
       </c>
@@ -38254,7 +38393,9 @@
       <c r="K201" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="L201" s="5"/>
+      <c r="L201" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M201" s="8">
         <v>4</v>
       </c>
@@ -38286,7 +38427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="30" t="s">
         <v>12</v>
       </c>
@@ -38320,7 +38461,9 @@
       <c r="K202" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="L202" s="10"/>
+      <c r="L202" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M202" s="11">
         <v>2</v>
       </c>
@@ -38352,7 +38495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="29" t="s">
         <v>12</v>
       </c>
@@ -38386,7 +38529,9 @@
       <c r="K203" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="L203" s="5"/>
+      <c r="L203" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M203" s="8">
         <v>4</v>
       </c>
@@ -38418,7 +38563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="30" t="s">
         <v>12</v>
       </c>
@@ -38452,7 +38597,9 @@
       <c r="K204" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="L204" s="10"/>
+      <c r="L204" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M204" s="11">
         <v>4</v>
       </c>
@@ -38484,7 +38631,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="29" t="s">
         <v>12</v>
       </c>
@@ -38518,7 +38665,9 @@
       <c r="K205" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="L205" s="5"/>
+      <c r="L205" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M205" s="8">
         <v>4</v>
       </c>
@@ -38550,7 +38699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="30" t="s">
         <v>12</v>
       </c>
@@ -38584,7 +38733,9 @@
       <c r="K206" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="L206" s="10"/>
+      <c r="L206" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M206" s="11">
         <v>5</v>
       </c>
@@ -38616,7 +38767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="29" t="s">
         <v>12</v>
       </c>
@@ -38650,7 +38801,9 @@
       <c r="K207" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="L207" s="5"/>
+      <c r="L207" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M207" s="8">
         <v>5</v>
       </c>
@@ -38682,7 +38835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="30" t="s">
         <v>12</v>
       </c>
@@ -38716,7 +38869,9 @@
       <c r="K208" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="L208" s="10"/>
+      <c r="L208" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M208" s="11">
         <v>2</v>
       </c>
@@ -38748,7 +38903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="29" t="s">
         <v>12</v>
       </c>
@@ -38782,7 +38937,9 @@
       <c r="K209" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="L209" s="5"/>
+      <c r="L209" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M209" s="8">
         <v>3</v>
       </c>
@@ -38814,7 +38971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
         <v>12</v>
       </c>
@@ -38864,7 +39021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="29" t="s">
         <v>12</v>
       </c>
@@ -38898,7 +39055,9 @@
       <c r="K211" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="L211" s="5"/>
+      <c r="L211" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M211" s="8">
         <v>10</v>
       </c>
@@ -38930,7 +39089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="30" t="s">
         <v>12</v>
       </c>
@@ -38964,7 +39123,9 @@
       <c r="K212" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="L212" s="10"/>
+      <c r="L212" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M212" s="11">
         <v>8</v>
       </c>
@@ -38996,7 +39157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="29" t="s">
         <v>12</v>
       </c>
@@ -39030,7 +39191,9 @@
       <c r="K213" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="L213" s="5"/>
+      <c r="L213" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M213" s="8">
         <v>3</v>
       </c>
@@ -39062,7 +39225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
         <v>12</v>
       </c>
@@ -39096,7 +39259,9 @@
       <c r="K214" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="L214" s="10"/>
+      <c r="L214" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M214" s="11">
         <v>3</v>
       </c>
@@ -39128,7 +39293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="29" t="s">
         <v>12</v>
       </c>
@@ -39162,7 +39327,9 @@
       <c r="K215" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="L215" s="5"/>
+      <c r="L215" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M215" s="8">
         <v>2</v>
       </c>
@@ -39194,7 +39361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
         <v>12</v>
       </c>
@@ -39228,7 +39395,9 @@
       <c r="K216" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="L216" s="10"/>
+      <c r="L216" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M216" s="11">
         <v>4</v>
       </c>
@@ -39260,7 +39429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="32">
         <v>17467</v>
       </c>
@@ -39328,7 +39497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="33">
         <v>17466</v>
       </c>
@@ -39396,7 +39565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="34">
         <v>17465</v>
       </c>
@@ -39464,7 +39633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="33">
         <v>17463</v>
       </c>
@@ -39514,7 +39683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="32">
         <v>17472</v>
       </c>
@@ -39582,7 +39751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="33">
         <v>17470</v>
       </c>
@@ -39650,7 +39819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="32">
         <v>17474</v>
       </c>
@@ -39700,7 +39869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="35">
         <v>17471</v>
       </c>
@@ -39768,7 +39937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="32">
         <v>17468</v>
       </c>
@@ -39836,7 +40005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="33">
         <v>17469</v>
       </c>
@@ -39904,7 +40073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="32">
         <v>17464</v>
       </c>
@@ -39972,7 +40141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="36">
         <v>17473</v>
       </c>
@@ -40041,7 +40210,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" sqref="L2:L228" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Male,Female"</formula1>
@@ -40070,39 +40238,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE3BFDB-3B66-49F1-AD4F-178288DED2E0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W266"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M15"/>
+    <sheetView topLeftCell="A253" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M266" sqref="M266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40170,7 +40339,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4523</v>
       </c>
@@ -40242,7 +40411,7 @@
         <v>Dyosi Asonele</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8486</v>
       </c>
@@ -40314,7 +40483,7 @@
         <v>Dingela Siphe</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8495</v>
       </c>
@@ -40386,7 +40555,7 @@
         <v>Masikwe Amogelang</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8499</v>
       </c>
@@ -40458,7 +40627,7 @@
         <v>Ventfoel Asahluma</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8579</v>
       </c>
@@ -40530,7 +40699,7 @@
         <v>Ntwayiyo Iphendule</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8580</v>
       </c>
@@ -40602,7 +40771,7 @@
         <v>Vulabetha Lulonke</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14801</v>
       </c>
@@ -40674,7 +40843,7 @@
         <v>Bunwana Lusenathi</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14802</v>
       </c>
@@ -40746,7 +40915,7 @@
         <v>Nkuthu Onele</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14804</v>
       </c>
@@ -40818,7 +40987,7 @@
         <v>Matshisi Lelothando</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14806</v>
       </c>
@@ -40890,7 +41059,7 @@
         <v>Mtyana Akhuthando</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16293</v>
       </c>
@@ -40962,7 +41131,7 @@
         <v>Blow Avethandwa</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16318</v>
       </c>
@@ -41034,7 +41203,7 @@
         <v>Ngwenya Sibongile</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>16319</v>
       </c>
@@ -41106,7 +41275,7 @@
         <v>Njana Lisakhanya</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16793</v>
       </c>
@@ -41178,7 +41347,7 @@
         <v>Makinana Achumile</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17520</v>
       </c>
@@ -41250,7 +41419,7 @@
         <v>Mfuthukezi Ntlonipho</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17494</v>
       </c>
@@ -41322,7 +41491,7 @@
         <v>Mbizweni Aluthando</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17495</v>
       </c>
@@ -41394,7 +41563,7 @@
         <v>Pepese Likuwe</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17496</v>
       </c>
@@ -41466,7 +41635,7 @@
         <v>Dayimani Lithemba</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17497</v>
       </c>
@@ -41538,7 +41707,7 @@
         <v>Mbeki Akhanani</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17498</v>
       </c>
@@ -41610,7 +41779,7 @@
         <v>Vumani Lethokuhle</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17499</v>
       </c>
@@ -41682,7 +41851,7 @@
         <v>Mnune Luyinene</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17500</v>
       </c>
@@ -41754,7 +41923,7 @@
         <v>Nokwe Lethokuhle</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>17501</v>
       </c>
@@ -41826,7 +41995,7 @@
         <v>Matiwana Sinentlantla</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17502</v>
       </c>
@@ -41898,7 +42067,7 @@
         <v>Dabuza Uthweswe</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17503</v>
       </c>
@@ -41970,7 +42139,7 @@
         <v>Maxengana Lingomso</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>17504</v>
       </c>
@@ -42042,7 +42211,7 @@
         <v>Bafo Imiqweno</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>17505</v>
       </c>
@@ -42114,7 +42283,7 @@
         <v>Tinta Likuwe</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8395</v>
       </c>
@@ -42183,7 +42352,7 @@
         <v>Makasi Oluhle</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8396</v>
       </c>
@@ -42252,7 +42421,7 @@
         <v>Majoni Isabel</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8397</v>
       </c>
@@ -42321,7 +42490,7 @@
         <v>Mkathana Alive</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9793</v>
       </c>
@@ -42390,7 +42559,7 @@
         <v>Ngcala Isiphile</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9794</v>
       </c>
@@ -42459,7 +42628,7 @@
         <v>Gqweta Konke</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>11199</v>
       </c>
@@ -42528,7 +42697,7 @@
         <v>Dindo Luhle</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>11200</v>
       </c>
@@ -42597,7 +42766,7 @@
         <v>Mangwana Ndalo</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>16119</v>
       </c>
@@ -42666,7 +42835,7 @@
         <v>Dolonga Liwalam</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>16121</v>
       </c>
@@ -42735,7 +42904,7 @@
         <v>Funde Owemihla</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>16122</v>
       </c>
@@ -42804,7 +42973,7 @@
         <v>Makolota Iyana</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>16123</v>
       </c>
@@ -42873,7 +43042,7 @@
         <v>Ngcingwana Amvuyise</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>16125</v>
       </c>
@@ -42942,7 +43111,7 @@
         <v>Sam Sumeya</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>16126</v>
       </c>
@@ -43011,7 +43180,7 @@
         <v>Twani Akahlulwa</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>17521</v>
       </c>
@@ -43080,7 +43249,7 @@
         <v>Mafani Alutho</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>17522</v>
       </c>
@@ -43149,7 +43318,7 @@
         <v>Nokeva Amkelo</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>17523</v>
       </c>
@@ -43218,7 +43387,7 @@
         <v>Ntloko Fezokuhle</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>17524</v>
       </c>
@@ -43287,7 +43456,7 @@
         <v>Ntsumpa Lethabo</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>17475</v>
       </c>
@@ -43356,7 +43525,7 @@
         <v>Livi Luncumo</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>17476</v>
       </c>
@@ -43425,7 +43594,7 @@
         <v>Sinqotho Migcobo</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>17477</v>
       </c>
@@ -43494,7 +43663,7 @@
         <v>Sinqotho Luncumo</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>17478</v>
       </c>
@@ -43563,7 +43732,7 @@
         <v>Mnukwa Ntando</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>17479</v>
       </c>
@@ -43632,7 +43801,7 @@
         <v>Vamva Lukho</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>17480</v>
       </c>
@@ -43701,7 +43870,7 @@
         <v>Peyi Iphemna</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>17481</v>
       </c>
@@ -43770,7 +43939,7 @@
         <v>Tobi Avuyonke</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>17482</v>
       </c>
@@ -43839,7 +44008,7 @@
         <v>Mbombela Asiphesona</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>17483</v>
       </c>
@@ -43908,7 +44077,7 @@
         <v>Sankobe Luphiwo</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>17484</v>
       </c>
@@ -43977,7 +44146,7 @@
         <v>Screech Zozibini</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>17485</v>
       </c>
@@ -44046,7 +44215,7 @@
         <v>Kateni Olwam</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>17486</v>
       </c>
@@ -44115,7 +44284,7 @@
         <v>Thys Bungcwele Ntsikelelo</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>17487</v>
       </c>
@@ -44184,7 +44353,7 @@
         <v>Hodi Enzokuhle</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>17488</v>
       </c>
@@ -44253,7 +44422,7 @@
         <v>Mxeke Ongamele</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>17489</v>
       </c>
@@ -44322,7 +44491,7 @@
         <v>Tommy Lulonke</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>17490</v>
       </c>
@@ -44391,7 +44560,7 @@
         <v>Dyonashe Hlaluminathi</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>17491</v>
       </c>
@@ -44460,7 +44629,7 @@
         <v>Mxoli Lonwabele</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>17492</v>
       </c>
@@ -44529,7 +44698,7 @@
         <v>Madakana Sinqobile</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>17493</v>
       </c>
@@ -44598,7 +44767,7 @@
         <v>Fulela Savuzwa</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6441</v>
       </c>
@@ -44670,7 +44839,7 @@
         <v>Pikinini Mbalentle</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6473</v>
       </c>
@@ -44742,7 +44911,7 @@
         <v>Skaap Liqhayiya</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8432</v>
       </c>
@@ -44814,7 +44983,7 @@
         <v>Malgas Mikhulu</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>8434</v>
       </c>
@@ -44886,7 +45055,7 @@
         <v>Oliphant Hlobanisa</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8435</v>
       </c>
@@ -44958,7 +45127,7 @@
         <v>Xabanisa Siphiwokuhle</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8541</v>
       </c>
@@ -45030,7 +45199,7 @@
         <v>Qeqe Phawulothando</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8542</v>
       </c>
@@ -45102,7 +45271,7 @@
         <v>Qwayiza Thandolwethu</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>8645</v>
       </c>
@@ -45174,7 +45343,7 @@
         <v>Bonani Uthando</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8648</v>
       </c>
@@ -45246,7 +45415,7 @@
         <v>Buso Lisakhanya</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8702</v>
       </c>
@@ -45318,7 +45487,7 @@
         <v>Magwa Lithalethu</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8766</v>
       </c>
@@ -45390,7 +45559,7 @@
         <v>Noqayi Ambesiwe</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8767</v>
       </c>
@@ -45462,7 +45631,7 @@
         <v>Sibondana Oluhle</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8780</v>
       </c>
@@ -45534,7 +45703,7 @@
         <v>Stokwe Siphelele</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9725</v>
       </c>
@@ -45606,7 +45775,7 @@
         <v>Bell Lisa</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>16289</v>
       </c>
@@ -45678,7 +45847,7 @@
         <v>Bangani Ziyana</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>16294</v>
       </c>
@@ -45750,7 +45919,7 @@
         <v>Budaza Inkazimulo</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>16295</v>
       </c>
@@ -45822,7 +45991,7 @@
         <v>Dayile Onesipho</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>16295</v>
       </c>
@@ -45894,7 +46063,7 @@
         <v>Dayile Aluve</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>16297</v>
       </c>
@@ -45966,7 +46135,7 @@
         <v>Gonise Akhanye</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>16302</v>
       </c>
@@ -46038,7 +46207,7 @@
         <v>Ludwabe Lunjeuthando</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>16303</v>
       </c>
@@ -46110,7 +46279,7 @@
         <v>Lwandle Mngadi</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>16304</v>
       </c>
@@ -46182,7 +46351,7 @@
         <v>Makabe Zenazi</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>16305</v>
       </c>
@@ -46254,7 +46423,7 @@
         <v>Mali Nichume</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>16306</v>
       </c>
@@ -46326,7 +46495,7 @@
         <v>Maneli Lubanzi</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>16307</v>
       </c>
@@ -46398,7 +46567,7 @@
         <v>Mbatyothi Linomtha</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>16308</v>
       </c>
@@ -46470,7 +46639,7 @@
         <v>Memani Athandwa</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>16310</v>
       </c>
@@ -46542,7 +46711,7 @@
         <v>Mpalala Liviwe</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>16311</v>
       </c>
@@ -46614,7 +46783,7 @@
         <v>Mqhele Yenzeka</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>16315</v>
       </c>
@@ -46686,7 +46855,7 @@
         <v>Ndubaza Lunabile</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>16316</v>
       </c>
@@ -46758,7 +46927,7 @@
         <v>Ngcezula Bungcwele</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>16320</v>
       </c>
@@ -46830,7 +46999,7 @@
         <v>Pakati Esamakhwane</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>16321</v>
       </c>
@@ -46902,7 +47071,7 @@
         <v>Plaatjie Likuthi</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>16322</v>
       </c>
@@ -46974,7 +47143,7 @@
         <v>Tsoko Omingaye</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>16771</v>
       </c>
@@ -47046,7 +47215,7 @@
         <v>Norman Ndinani</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>17460</v>
       </c>
@@ -47118,7 +47287,7 @@
         <v>Lamani Milani</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>17461</v>
       </c>
@@ -47190,7 +47359,7 @@
         <v>Mngconga Hloma</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>17462</v>
       </c>
@@ -47262,7 +47431,7 @@
         <v>Zaranyika Angelo</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8389</v>
       </c>
@@ -47334,7 +47503,7 @@
         <v>Dyifolo Luminjalo</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8452</v>
       </c>
@@ -47406,7 +47575,7 @@
         <v>Magixa Akhanani</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9716</v>
       </c>
@@ -47478,7 +47647,7 @@
         <v>Ntantiso Olothando</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9717</v>
       </c>
@@ -47550,7 +47719,7 @@
         <v>Qumba Linamandla</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>16323</v>
       </c>
@@ -47622,7 +47791,7 @@
         <v>Busakwe Unabantu</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>16324</v>
       </c>
@@ -47694,7 +47863,7 @@
         <v>Dyakalashe Sumeya</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>16325</v>
       </c>
@@ -47766,7 +47935,7 @@
         <v>Dyapi Sisabonga</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>16328</v>
       </c>
@@ -47838,7 +48007,7 @@
         <v>Mabindisa Putumuncumo</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>16331</v>
       </c>
@@ -47910,7 +48079,7 @@
         <v>Mngcokocha Iminathi</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>16332</v>
       </c>
@@ -47982,7 +48151,7 @@
         <v>Mngcokocha Yamkela</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>16333</v>
       </c>
@@ -48054,7 +48223,7 @@
         <v>Mqombothi Oyingcwele</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>16335</v>
       </c>
@@ -48126,7 +48295,7 @@
         <v>Mtetandaba Enzokuhle</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>16336</v>
       </c>
@@ -48198,7 +48367,7 @@
         <v>Ndzamela Othalive</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>16337</v>
       </c>
@@ -48270,7 +48439,7 @@
         <v>Ngalo Anovuyo</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>16338</v>
       </c>
@@ -48342,7 +48511,7 @@
         <v>Ngalo Zimi</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>16339</v>
       </c>
@@ -48414,7 +48583,7 @@
         <v>Ntshangase Luminathi</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>16340</v>
       </c>
@@ -48486,7 +48655,7 @@
         <v>Potgieter Uyanda</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>16341</v>
       </c>
@@ -48558,7 +48727,7 @@
         <v>Tose Siyazingca</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>16342</v>
       </c>
@@ -48630,7 +48799,7 @@
         <v>Totwana Hlaluminathi</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>16343</v>
       </c>
@@ -48702,7 +48871,7 @@
         <v>Tyoba Melokuhle</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>16794</v>
       </c>
@@ -48774,7 +48943,7 @@
         <v>Ntsosane Bukhobenkosi</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6507</v>
       </c>
@@ -48846,7 +49015,7 @@
         <v>Dyakalashe Uyinene</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>8425</v>
       </c>
@@ -48918,7 +49087,7 @@
         <v>Matyeni Inako</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>8447</v>
       </c>
@@ -48990,7 +49159,7 @@
         <v>Peter Imange</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>8450</v>
       </c>
@@ -49062,7 +49231,7 @@
         <v>Taaibos Azosule</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>8748</v>
       </c>
@@ -49134,7 +49303,7 @@
         <v>Mila Lizalisa</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>8769</v>
       </c>
@@ -49206,7 +49375,7 @@
         <v>Nyamfu Lolwenkosi</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8775</v>
       </c>
@@ -49278,7 +49447,7 @@
         <v>Rala Ndimphiwe</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>8794</v>
       </c>
@@ -49350,7 +49519,7 @@
         <v>Tosi Uzomanathi</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>16388</v>
       </c>
@@ -49422,7 +49591,7 @@
         <v>Dyantyi Luphawu</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>16392</v>
       </c>
@@ -49494,7 +49663,7 @@
         <v>Hlabeni Lethokuhle</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>16396</v>
       </c>
@@ -49566,7 +49735,7 @@
         <v>Joe Iminathi</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>16403</v>
       </c>
@@ -49638,7 +49807,7 @@
         <v>Kula Minentle</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>16404</v>
       </c>
@@ -49710,7 +49879,7 @@
         <v>Lebosa Katleho</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>16406</v>
       </c>
@@ -49782,7 +49951,7 @@
         <v>Mabona Ntlakanipho</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>16407</v>
       </c>
@@ -49854,7 +50023,7 @@
         <v>Mabozwana Panashe</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>16408</v>
       </c>
@@ -49926,7 +50095,7 @@
         <v>Manana Imolathile</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>16409</v>
       </c>
@@ -49998,7 +50167,7 @@
         <v>Marati Olumiyo</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>16411</v>
       </c>
@@ -50070,7 +50239,7 @@
         <v>Matiso Lulonke</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>16412</v>
       </c>
@@ -50142,7 +50311,7 @@
         <v>Matiwana Aphiwe</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>16417</v>
       </c>
@@ -50214,7 +50383,7 @@
         <v>Mjacu Mlibo</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>16418</v>
       </c>
@@ -50286,7 +50455,7 @@
         <v>Mkayo Bukhobenkosi</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>16420</v>
       </c>
@@ -50358,7 +50527,7 @@
         <v>Moli Amila</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>16422</v>
       </c>
@@ -50430,7 +50599,7 @@
         <v>Mqwayi Ayazingca</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>16425</v>
       </c>
@@ -50502,7 +50671,7 @@
         <v>Muronzi Avile</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>16435</v>
       </c>
@@ -50574,7 +50743,7 @@
         <v>Nguqu Achumile</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>16441</v>
       </c>
@@ -50646,7 +50815,7 @@
         <v>Notiki Ivakele</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>16442</v>
       </c>
@@ -50718,7 +50887,7 @@
         <v>Ntante Lolwethu</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>16443</v>
       </c>
@@ -50790,7 +50959,7 @@
         <v>Ntlanjeni Alupheli</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>16446</v>
       </c>
@@ -50862,7 +51031,7 @@
         <v>Nyikilana Luphelo</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>16448</v>
       </c>
@@ -50934,7 +51103,7 @@
         <v>Phori Thuso</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>16449</v>
       </c>
@@ -51006,7 +51175,7 @@
         <v>Qawula Abongile</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>16454</v>
       </c>
@@ -51078,7 +51247,7 @@
         <v>Sokhanyile Lunathi</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>16457</v>
       </c>
@@ -51150,7 +51319,7 @@
         <v>Tosi Amyoli</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>16459</v>
       </c>
@@ -51222,7 +51391,7 @@
         <v>Chakanyuka Tanisha</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>16462</v>
       </c>
@@ -51294,7 +51463,7 @@
         <v>Tsotso Othalive</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>16467</v>
       </c>
@@ -51366,7 +51535,7 @@
         <v>Xundulu Lelam</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>17511</v>
       </c>
@@ -51438,7 +51607,7 @@
         <v>Tsoko Luhlelunje</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>17512</v>
       </c>
@@ -51510,7 +51679,7 @@
         <v>Haparimui Kiara</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>17513</v>
       </c>
@@ -51582,7 +51751,7 @@
         <v>Yozo Asiphe</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>17514</v>
       </c>
@@ -51654,7 +51823,7 @@
         <v>Bawula Aluve</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>17515</v>
       </c>
@@ -51726,7 +51895,7 @@
         <v>Makhalima Mhlomhle</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>17516</v>
       </c>
@@ -51798,7 +51967,7 @@
         <v>Ngamase Sinelizwi</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>17517</v>
       </c>
@@ -51867,7 +52036,7 @@
         <v>Mrwali Ntando</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>17518</v>
       </c>
@@ -51936,7 +52105,7 @@
         <v>Kamkam Buhle</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>17519</v>
       </c>
@@ -52005,7 +52174,7 @@
         <v>Glow Linamandla</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>6821</v>
       </c>
@@ -52077,7 +52246,7 @@
         <v>Ncapayi Likhona</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6827</v>
       </c>
@@ -52149,7 +52318,7 @@
         <v>Jack Ahlangene</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>6828</v>
       </c>
@@ -52221,7 +52390,7 @@
         <v>Damba Kungothando</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>8469</v>
       </c>
@@ -52293,7 +52462,7 @@
         <v>Rasawe Ndinani</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>8527</v>
       </c>
@@ -52365,7 +52534,7 @@
         <v>Haarmans Alunamida</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>8777</v>
       </c>
@@ -52437,7 +52606,7 @@
         <v>Limani Ithandile</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>8779</v>
       </c>
@@ -52509,7 +52678,7 @@
         <v>Mahe Avuyile</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>8782</v>
       </c>
@@ -52581,7 +52750,7 @@
         <v>Mbolekwa Likuwe</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>16472</v>
       </c>
@@ -52653,7 +52822,7 @@
         <v>Cuba Luyolo</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>16474</v>
       </c>
@@ -52725,7 +52894,7 @@
         <v>Davashe Melokuhle</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>16475</v>
       </c>
@@ -52797,7 +52966,7 @@
         <v>Fayindlala Bright</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>16476</v>
       </c>
@@ -52869,7 +53038,7 @@
         <v>Felibanzi Asiphesona</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>16477</v>
       </c>
@@ -52941,7 +53110,7 @@
         <v>Fuzani Asonele</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>16478</v>
       </c>
@@ -53013,7 +53182,7 @@
         <v>Hulu Wonke</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>16479</v>
       </c>
@@ -53085,7 +53254,7 @@
         <v>Ibhe Melokuhle</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>16480</v>
       </c>
@@ -53157,7 +53326,7 @@
         <v>Jim Olungaka</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>16481</v>
       </c>
@@ -53229,7 +53398,7 @@
         <v>Jongwana Minentle</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>16482</v>
       </c>
@@ -53301,7 +53470,7 @@
         <v>Keke Enzokuhle</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>16484</v>
       </c>
@@ -53373,7 +53542,7 @@
         <v>Manekwana Keabetswe</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>16485</v>
       </c>
@@ -53445,7 +53614,7 @@
         <v>Maneli Indiphile</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>16486</v>
       </c>
@@ -53517,7 +53686,7 @@
         <v>Maswana Zemhle</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>16488</v>
       </c>
@@ -53589,7 +53758,7 @@
         <v>Ncapayi Oyintando</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>16489</v>
       </c>
@@ -53661,7 +53830,7 @@
         <v>Nikelo Lingcwalise</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>16490</v>
       </c>
@@ -53733,7 +53902,7 @@
         <v>Njokweni Siphokuhle</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>16491</v>
       </c>
@@ -53805,7 +53974,7 @@
         <v>Nzothoyi Bubele</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>16493</v>
       </c>
@@ -53877,7 +54046,7 @@
         <v>Nzuzo Buhle</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>16494</v>
       </c>
@@ -53949,7 +54118,7 @@
         <v>Plaatjies Azingce</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>16495</v>
       </c>
@@ -54021,7 +54190,7 @@
         <v>Plaatjies Iminathi</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>16496</v>
       </c>
@@ -54093,7 +54262,7 @@
         <v>Sandi Lavela</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>16497</v>
       </c>
@@ -54165,7 +54334,7 @@
         <v>Singatha Emihle</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>16499</v>
       </c>
@@ -54237,7 +54406,7 @@
         <v>Sompali Simamkele</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>16504</v>
       </c>
@@ -54309,7 +54478,7 @@
         <v>Vena Likuye</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>16640</v>
       </c>
@@ -54381,7 +54550,7 @@
         <v>Meva Luniko</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>16641</v>
       </c>
@@ -54453,7 +54622,7 @@
         <v>Mbedeni Lusanele</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>16642</v>
       </c>
@@ -54525,7 +54694,7 @@
         <v>Damba Lolwethu</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>16643</v>
       </c>
@@ -54597,7 +54766,7 @@
         <v>Mbedeni Sinesipho</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>16644</v>
       </c>
@@ -54669,7 +54838,7 @@
         <v>Chidakwa Kayla</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>17506</v>
       </c>
@@ -54741,7 +54910,7 @@
         <v>Sheleni Unako</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>17507</v>
       </c>
@@ -54813,7 +54982,7 @@
         <v>Tolwana Kopano</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>17508</v>
       </c>
@@ -54885,7 +55054,7 @@
         <v>Paul Ndalwentle</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>17509</v>
       </c>
@@ -54957,7 +55126,7 @@
         <v>Tinise Othalive</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>17510</v>
       </c>
@@ -55029,7 +55198,7 @@
         <v>Llyod Oyintando</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>17463</v>
       </c>
@@ -55101,7 +55270,7 @@
         <v>Madikana Yamihle</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>17464</v>
       </c>
@@ -55173,7 +55342,7 @@
         <v>Sito Latholihle</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>17465</v>
       </c>
@@ -55245,7 +55414,7 @@
         <v>Kamva Lichume</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>17466</v>
       </c>
@@ -55317,7 +55486,7 @@
         <v>Ludwabe Lingomso</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>17467</v>
       </c>
@@ -55389,7 +55558,7 @@
         <v>Komile Kungethando</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>17468</v>
       </c>
@@ -55461,7 +55630,7 @@
         <v>Nyathi Ayanda</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>17469</v>
       </c>
@@ -55530,7 +55699,7 @@
         <v>Siko Libhongo</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>17470</v>
       </c>
@@ -55602,7 +55771,7 @@
         <v>Mayinje Luphilile</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>17471</v>
       </c>
@@ -55674,7 +55843,7 @@
         <v>Nqoyi Iminathi</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>17472</v>
       </c>
@@ -55746,7 +55915,7 @@
         <v>Mayinje Bathandwa</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>17473</v>
       </c>
@@ -55818,7 +55987,7 @@
         <v>Tofile Iviwe</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>17474</v>
       </c>
@@ -55890,7 +56059,7 @@
         <v>Mazomba Azoma</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>536</v>
       </c>
@@ -55920,6 +56089,9 @@
       </c>
       <c r="K222" t="s">
         <v>574</v>
+      </c>
+      <c r="L222" t="s">
+        <v>59</v>
       </c>
       <c r="M222">
         <v>1</v>
@@ -55956,7 +56128,7 @@
         <v>Madonci Ayonanga</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>536</v>
       </c>
@@ -55986,6 +56158,9 @@
       </c>
       <c r="K223" t="s">
         <v>542</v>
+      </c>
+      <c r="L223" t="s">
+        <v>59</v>
       </c>
       <c r="M223">
         <v>2</v>
@@ -56022,7 +56197,7 @@
         <v>Antrish Olwam</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>536</v>
       </c>
@@ -56052,6 +56227,9 @@
       </c>
       <c r="K224" t="s">
         <v>569</v>
+      </c>
+      <c r="L224" t="s">
+        <v>20</v>
       </c>
       <c r="M224">
         <v>1</v>
@@ -56088,7 +56266,7 @@
         <v>Lechuti Inam</v>
       </c>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>536</v>
       </c>
@@ -56118,6 +56296,9 @@
       </c>
       <c r="K225" t="s">
         <v>548</v>
+      </c>
+      <c r="L225" t="s">
+        <v>20</v>
       </c>
       <c r="M225">
         <v>1</v>
@@ -56154,7 +56335,7 @@
         <v>Chaferamthengi Mundiwa</v>
       </c>
     </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>536</v>
       </c>
@@ -56184,6 +56365,9 @@
       </c>
       <c r="K226" t="s">
         <v>589</v>
+      </c>
+      <c r="L226" t="s">
+        <v>20</v>
       </c>
       <c r="M226">
         <v>2</v>
@@ -56220,7 +56404,7 @@
         <v>Memani Luyinene</v>
       </c>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>536</v>
       </c>
@@ -56250,6 +56434,9 @@
       </c>
       <c r="K227" t="s">
         <v>571</v>
+      </c>
+      <c r="L227" t="s">
+        <v>20</v>
       </c>
       <c r="M227">
         <v>2</v>
@@ -56286,7 +56473,7 @@
         <v>Madobo Kopano</v>
       </c>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>536</v>
       </c>
@@ -56316,6 +56503,9 @@
       </c>
       <c r="K228" t="s">
         <v>577</v>
+      </c>
+      <c r="L228" t="s">
+        <v>59</v>
       </c>
       <c r="M228">
         <v>3</v>
@@ -56352,7 +56542,7 @@
         <v>Makana Khanyiso</v>
       </c>
     </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>536</v>
       </c>
@@ -56382,6 +56572,9 @@
       </c>
       <c r="K229" t="s">
         <v>615</v>
+      </c>
+      <c r="L229" t="s">
+        <v>20</v>
       </c>
       <c r="M229">
         <v>1</v>
@@ -56418,7 +56611,7 @@
         <v>Ngodwana Amlindile</v>
       </c>
     </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>536</v>
       </c>
@@ -56448,6 +56641,9 @@
       </c>
       <c r="K230" t="s">
         <v>604</v>
+      </c>
+      <c r="L230" t="s">
+        <v>20</v>
       </c>
       <c r="M230">
         <v>2</v>
@@ -56484,7 +56680,7 @@
         <v>Mtshakazi Lolwakhe</v>
       </c>
     </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>536</v>
       </c>
@@ -56514,6 +56710,9 @@
       </c>
       <c r="K231" t="s">
         <v>580</v>
+      </c>
+      <c r="L231" t="s">
+        <v>59</v>
       </c>
       <c r="M231">
         <v>2</v>
@@ -56550,7 +56749,7 @@
         <v>Mapuza Qhawe</v>
       </c>
     </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>536</v>
       </c>
@@ -56580,6 +56779,9 @@
       </c>
       <c r="K232" t="s">
         <v>612</v>
+      </c>
+      <c r="L232" t="s">
+        <v>59</v>
       </c>
       <c r="M232">
         <v>1</v>
@@ -56616,7 +56818,7 @@
         <v>Namba Chulumanco</v>
       </c>
     </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>536</v>
       </c>
@@ -56646,6 +56848,9 @@
       </c>
       <c r="K233" t="s">
         <v>557</v>
+      </c>
+      <c r="L233" t="s">
+        <v>20</v>
       </c>
       <c r="M233">
         <v>1</v>
@@ -56682,7 +56887,7 @@
         <v>Gomani Sasha</v>
       </c>
     </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>536</v>
       </c>
@@ -56712,6 +56917,9 @@
       </c>
       <c r="K234" t="s">
         <v>551</v>
+      </c>
+      <c r="L234" t="s">
+        <v>20</v>
       </c>
       <c r="M234">
         <v>2</v>
@@ -56748,7 +56956,7 @@
         <v>Chari Trish</v>
       </c>
     </row>
-    <row r="235" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>536</v>
       </c>
@@ -56778,6 +56986,9 @@
       </c>
       <c r="K235" t="s">
         <v>560</v>
+      </c>
+      <c r="L235" t="s">
+        <v>59</v>
       </c>
       <c r="M235">
         <v>1</v>
@@ -56814,7 +57025,7 @@
         <v>Gubevu Oyisa</v>
       </c>
     </row>
-    <row r="236" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>536</v>
       </c>
@@ -56844,6 +57055,9 @@
       </c>
       <c r="K236" t="s">
         <v>563</v>
+      </c>
+      <c r="L236" t="s">
+        <v>20</v>
       </c>
       <c r="M236">
         <v>2</v>
@@ -56880,7 +57094,7 @@
         <v>Hlisani Lundanele</v>
       </c>
     </row>
-    <row r="237" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>536</v>
       </c>
@@ -56910,6 +57124,9 @@
       </c>
       <c r="K237" t="s">
         <v>554</v>
+      </c>
+      <c r="L237" t="s">
+        <v>59</v>
       </c>
       <c r="M237">
         <v>2</v>
@@ -56946,7 +57163,7 @@
         <v>Faltein Ibenam</v>
       </c>
     </row>
-    <row r="238" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>536</v>
       </c>
@@ -56976,6 +57193,9 @@
       </c>
       <c r="K238" t="s">
         <v>566</v>
+      </c>
+      <c r="L238" t="s">
+        <v>20</v>
       </c>
       <c r="M238">
         <v>2</v>
@@ -57012,7 +57232,7 @@
         <v>Kani Likuwe</v>
       </c>
     </row>
-    <row r="239" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>536</v>
       </c>
@@ -57042,6 +57262,9 @@
       </c>
       <c r="K239" t="s">
         <v>591</v>
+      </c>
+      <c r="L239" t="s">
+        <v>20</v>
       </c>
       <c r="M239">
         <v>1</v>
@@ -57078,7 +57301,7 @@
         <v>Mfuduka Iyana</v>
       </c>
     </row>
-    <row r="240" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>536</v>
       </c>
@@ -57108,6 +57331,9 @@
       </c>
       <c r="K240" t="s">
         <v>630</v>
+      </c>
+      <c r="L240" t="s">
+        <v>59</v>
       </c>
       <c r="M240">
         <v>2</v>
@@ -57144,7 +57370,7 @@
         <v>Thys Linothando</v>
       </c>
     </row>
-    <row r="241" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>536</v>
       </c>
@@ -57174,6 +57400,9 @@
       </c>
       <c r="K241" t="s">
         <v>633</v>
+      </c>
+      <c r="L241" t="s">
+        <v>20</v>
       </c>
       <c r="M241">
         <v>2</v>
@@ -57210,7 +57439,7 @@
         <v>Willie Iminathi</v>
       </c>
     </row>
-    <row r="242" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>536</v>
       </c>
@@ -57240,6 +57469,9 @@
       </c>
       <c r="K242" t="s">
         <v>599</v>
+      </c>
+      <c r="L242" t="s">
+        <v>20</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -57276,7 +57508,7 @@
         <v>Moni Inam</v>
       </c>
     </row>
-    <row r="243" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>536</v>
       </c>
@@ -57306,6 +57538,9 @@
       </c>
       <c r="K243" t="s">
         <v>607</v>
+      </c>
+      <c r="L243" t="s">
+        <v>59</v>
       </c>
       <c r="M243">
         <v>2</v>
@@ -57342,7 +57577,7 @@
         <v>Myali Jonathan</v>
       </c>
     </row>
-    <row r="244" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>536</v>
       </c>
@@ -57372,6 +57607,9 @@
       </c>
       <c r="K244" t="s">
         <v>545</v>
+      </c>
+      <c r="L244" t="s">
+        <v>59</v>
       </c>
       <c r="M244">
         <v>1</v>
@@ -57408,7 +57646,7 @@
         <v>Bakajana Ibanathi</v>
       </c>
     </row>
-    <row r="245" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>536</v>
       </c>
@@ -57438,6 +57676,9 @@
       </c>
       <c r="K245" t="s">
         <v>624</v>
+      </c>
+      <c r="L245" t="s">
+        <v>20</v>
       </c>
       <c r="M245">
         <v>1</v>
@@ -57474,7 +57715,7 @@
         <v>Payi Othaluve</v>
       </c>
     </row>
-    <row r="246" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>536</v>
       </c>
@@ -57504,6 +57745,9 @@
       </c>
       <c r="K246" t="s">
         <v>609</v>
+      </c>
+      <c r="L246" t="s">
+        <v>20</v>
       </c>
       <c r="M246">
         <v>1</v>
@@ -57540,7 +57784,7 @@
         <v>Mzukwa Thandolwethu</v>
       </c>
     </row>
-    <row r="247" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>536</v>
       </c>
@@ -57570,6 +57814,9 @@
       </c>
       <c r="K247" t="s">
         <v>627</v>
+      </c>
+      <c r="L247" t="s">
+        <v>59</v>
       </c>
       <c r="M247">
         <v>1</v>
@@ -57606,7 +57853,7 @@
         <v>Sitho Uviwe</v>
       </c>
     </row>
-    <row r="248" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>536</v>
       </c>
@@ -57636,6 +57883,9 @@
       </c>
       <c r="K248" t="s">
         <v>621</v>
+      </c>
+      <c r="L248" t="s">
+        <v>20</v>
       </c>
       <c r="M248">
         <v>3</v>
@@ -57672,7 +57922,7 @@
         <v>Nondlwana Yamihle</v>
       </c>
     </row>
-    <row r="249" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>536</v>
       </c>
@@ -57702,6 +57952,9 @@
       </c>
       <c r="K249" t="s">
         <v>585</v>
+      </c>
+      <c r="L249" t="s">
+        <v>59</v>
       </c>
       <c r="M249">
         <v>2</v>
@@ -57738,7 +57991,7 @@
         <v>Meki Ligcobe</v>
       </c>
     </row>
-    <row r="250" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>536</v>
       </c>
@@ -57768,6 +58021,9 @@
       </c>
       <c r="K250" t="s">
         <v>587</v>
+      </c>
+      <c r="L250" t="s">
+        <v>20</v>
       </c>
       <c r="M250">
         <v>4</v>
@@ -57804,7 +58060,7 @@
         <v>Melane Olumiyo</v>
       </c>
     </row>
-    <row r="251" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>536</v>
       </c>
@@ -57834,6 +58090,9 @@
       </c>
       <c r="K251" t="s">
         <v>594</v>
+      </c>
+      <c r="L251" t="s">
+        <v>20</v>
       </c>
       <c r="M251">
         <v>0</v>
@@ -57870,7 +58129,7 @@
         <v>Mkwenkwe Misoyethu</v>
       </c>
     </row>
-    <row r="252" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>536</v>
       </c>
@@ -57900,6 +58159,9 @@
       </c>
       <c r="K252" t="s">
         <v>618</v>
+      </c>
+      <c r="L252" t="s">
+        <v>59</v>
       </c>
       <c r="M252">
         <v>0</v>
@@ -57936,7 +58198,7 @@
         <v>Njengele Miyanda</v>
       </c>
     </row>
-    <row r="253" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>536</v>
       </c>
@@ -57966,6 +58228,9 @@
       </c>
       <c r="K253" t="s">
         <v>597</v>
+      </c>
+      <c r="L253" t="s">
+        <v>59</v>
       </c>
       <c r="M253">
         <v>1</v>
@@ -58002,7 +58267,7 @@
         <v>Molefe Wavenkosi</v>
       </c>
     </row>
-    <row r="254" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>536</v>
       </c>
@@ -58032,6 +58297,9 @@
       </c>
       <c r="K254" t="s">
         <v>631</v>
+      </c>
+      <c r="L254" t="s">
+        <v>20</v>
       </c>
       <c r="M254">
         <v>0</v>
@@ -58068,7 +58336,7 @@
         <v>Tinise Luphawu</v>
       </c>
     </row>
-    <row r="255" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>536</v>
       </c>
@@ -58098,6 +58366,9 @@
       </c>
       <c r="K255" t="s">
         <v>564</v>
+      </c>
+      <c r="L255" t="s">
+        <v>59</v>
       </c>
       <c r="M255">
         <v>0</v>
@@ -58134,7 +58405,7 @@
         <v>Kamkam Enzokuhle</v>
       </c>
     </row>
-    <row r="256" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>536</v>
       </c>
@@ -58164,6 +58435,9 @@
       </c>
       <c r="K256" t="s">
         <v>582</v>
+      </c>
+      <c r="L256" t="s">
+        <v>59</v>
       </c>
       <c r="M256">
         <v>0</v>
@@ -58200,7 +58474,7 @@
         <v>Mbeki Esona</v>
       </c>
     </row>
-    <row r="257" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>536</v>
       </c>
@@ -58230,6 +58504,9 @@
       </c>
       <c r="K257" t="s">
         <v>601</v>
+      </c>
+      <c r="L257" t="s">
+        <v>59</v>
       </c>
       <c r="M257">
         <v>1</v>
@@ -58266,7 +58543,7 @@
         <v>Mrwali Zubenathi</v>
       </c>
     </row>
-    <row r="258" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>536</v>
       </c>
@@ -58296,6 +58573,9 @@
       </c>
       <c r="K258" t="s">
         <v>539</v>
+      </c>
+      <c r="L258" t="s">
+        <v>59</v>
       </c>
       <c r="M258">
         <v>0</v>
@@ -58332,7 +58612,7 @@
         <v>Anthony Ndinani</v>
       </c>
     </row>
-    <row r="259" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>13</v>
       </c>
@@ -58362,6 +58642,9 @@
       </c>
       <c r="K259" t="s">
         <v>31</v>
+      </c>
+      <c r="L259" t="s">
+        <v>20</v>
       </c>
       <c r="M259">
         <v>2</v>
@@ -58398,7 +58681,7 @@
         <v>Mazambe Makanaka</v>
       </c>
     </row>
-    <row r="260" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>13</v>
       </c>
@@ -58428,6 +58711,9 @@
       </c>
       <c r="K260" t="s">
         <v>34</v>
+      </c>
+      <c r="L260" t="s">
+        <v>20</v>
       </c>
       <c r="M260">
         <v>2</v>
@@ -58464,7 +58750,7 @@
         <v>Mfanta Liviwe</v>
       </c>
     </row>
-    <row r="261" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>13</v>
       </c>
@@ -58494,6 +58780,9 @@
       </c>
       <c r="K261" t="s">
         <v>40</v>
+      </c>
+      <c r="L261" t="s">
+        <v>20</v>
       </c>
       <c r="M261">
         <v>2</v>
@@ -58530,7 +58819,7 @@
         <v>Yeko Lingelihle</v>
       </c>
     </row>
-    <row r="262" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>13</v>
       </c>
@@ -58560,6 +58849,9 @@
       </c>
       <c r="K262" t="s">
         <v>823</v>
+      </c>
+      <c r="L262" t="s">
+        <v>20</v>
       </c>
       <c r="M262">
         <v>2</v>
@@ -58596,7 +58888,7 @@
         <v>Mfengu Owenceba</v>
       </c>
     </row>
-    <row r="263" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>13</v>
       </c>
@@ -58626,6 +58918,9 @@
       </c>
       <c r="K263" t="s">
         <v>23</v>
+      </c>
+      <c r="L263" t="s">
+        <v>20</v>
       </c>
       <c r="M263">
         <v>2</v>
@@ -58662,7 +58957,7 @@
         <v>Dyasi Njabulo</v>
       </c>
     </row>
-    <row r="264" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>13</v>
       </c>
@@ -58692,6 +58987,9 @@
       </c>
       <c r="K264" t="s">
         <v>37</v>
+      </c>
+      <c r="L264" t="s">
+        <v>59</v>
       </c>
       <c r="M264">
         <v>2</v>
@@ -58728,7 +59026,7 @@
         <v>Teyise Zimi</v>
       </c>
     </row>
-    <row r="265" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>13</v>
       </c>
@@ -58754,10 +59052,13 @@
         <v>19</v>
       </c>
       <c r="J265" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="K265" t="s">
-        <v>825</v>
+        <v>845</v>
+      </c>
+      <c r="L265" t="s">
+        <v>20</v>
       </c>
       <c r="M265">
         <v>2</v>
@@ -58791,10 +59092,10 @@
       </c>
       <c r="W265" t="str">
         <f t="shared" si="4"/>
-        <v>Chipewe Siviwe</v>
-      </c>
-    </row>
-    <row r="266" spans="2:23" x14ac:dyDescent="0.25">
+        <v>Chipewe Amanda</v>
+      </c>
+    </row>
+    <row r="266" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>13</v>
       </c>
@@ -58824,6 +59125,9 @@
       </c>
       <c r="K266" t="s">
         <v>26</v>
+      </c>
+      <c r="L266" t="s">
+        <v>20</v>
       </c>
       <c r="M266">
         <v>2</v>
@@ -58861,6 +59165,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W266" xr:uid="{ABE3BFDB-3B66-49F1-AD4F-178288DED2E0}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Avumile"/>
+        <filter val="Bright Angels"/>
+        <filter val="Govan Mbeki"/>
+        <filter val="Pawulosi Oyingcwele"/>
+        <filter val="Qaqawuli Godolozi"/>
+        <filter val="Sifunimfundo"/>
+        <filter val="Sinethemba"/>
+        <filter val="Siyabulela"/>
+        <filter val="St. Mary"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>